--- a/table_test.xlsx
+++ b/table_test.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A028E1-89FF-45A2-9FFB-DAC5D5133438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B870A3D-A4A8-49DA-A7AB-31AD570C2A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Номер</t>
   </si>
@@ -28,12 +28,6 @@
     <t>Кол-во пропусков</t>
   </si>
   <si>
-    <t>Филипп</t>
-  </si>
-  <si>
-    <t>Костя</t>
-  </si>
-  <si>
     <t>Проблемы</t>
   </si>
   <si>
@@ -49,15 +43,9 @@
     <t>напомнили ему пересмотреть вебинар в записи, потому что по нему будет задано домашнее задание</t>
   </si>
   <si>
-    <t>Пропуск, Нет дз</t>
-  </si>
-  <si>
     <t>нет</t>
   </si>
   <si>
-    <t>пропуск</t>
-  </si>
-  <si>
     <t>напомнили ему пересмотреть вебинар в записи</t>
   </si>
   <si>
@@ -68,6 +56,30 @@
   </si>
   <si>
     <t>Решение проблемы</t>
+  </si>
+  <si>
+    <t>Пропуск</t>
+  </si>
+  <si>
+    <t>Тема</t>
+  </si>
+  <si>
+    <t>нет дз</t>
+  </si>
+  <si>
+    <t>Вайтенко Филипп Витальевич</t>
+  </si>
+  <si>
+    <t>Усман Ольга Анатольевна</t>
+  </si>
+  <si>
+    <t>Дроби</t>
+  </si>
+  <si>
+    <t>Система уравнений</t>
+  </si>
+  <si>
+    <t>Основы триганометрии</t>
   </si>
 </sst>
 </file>
@@ -438,47 +450,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="8" width="97.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="8" max="8" width="97.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -492,21 +508,24 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -515,21 +534,24 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -538,16 +560,27 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
       </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G4" xr:uid="{BBFF224C-1A78-49EB-912D-9278D032E822}">
+      <formula1>$G$2:$G$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4" xr:uid="{DFDC8B4D-7B70-4BBE-A20D-987CDB10C0DB}">
+      <formula1>$F$2:$F$3</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
